--- a/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
+++ b/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160218</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0441</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160628</t>
+          <t>160218</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华中证800地产指数（LOF）</t>
+          <t>国泰国证房地产行业指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.55</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.77</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>160628</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>鹏华中证800地产指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.69</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515060</t>
+          <t>001304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏中证全指房地产ETF</t>
+          <t>建信鑫安回报灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.50</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>54.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001264</t>
+          <t>515060</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华恒利灵活配置混合A</t>
+          <t>华夏中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48.51</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001304</t>
+          <t>001264</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信鑫安回报灵活配置混合</t>
+          <t>银华恒利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>54.48</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>48.51</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008809</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信民稳增长混合A</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>19.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0049</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>160218</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>国泰国证房地产行业指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501072</t>
+          <t>161721</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+          <t>招商沪深300地产等权重指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100.47</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -846,25 +976,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>160628</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>鹏华中证800地产指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.66</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001364</t>
+          <t>008809</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成景润灵活配置混合</t>
+          <t>安信民稳增长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.69</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>34.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515060</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏中证全指房地产ETF</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>97.97</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160218</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160628</t>
+          <t>515060</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华中证800地产指数（LOF）</t>
+          <t>华夏中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161721</t>
+          <t>001364</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数</t>
+          <t>大成景润灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>34.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>003147</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>大成动态量化配置策略混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003147</t>
+          <t>501072</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成动态量化配置策略混合</t>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29.73</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
+++ b/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>56.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
+++ b/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1980,4 +1981,2604 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8196</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9287</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7425</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5967</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5073</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4548</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4415</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4382</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4235</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4209</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3299</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3134</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>55.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004100</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华安益增强混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
+++ b/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4581,4 +4582,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
+++ b/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4590,7 +4591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4601,17 +4602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4621,14 +4642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.27</v>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4637,14 +4680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.95</v>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5794</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4653,14 +4718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.68</v>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4669,13 +4756,4061 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2567</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7832</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4762</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4322</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4173</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3991</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3573</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3277</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3172</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2585</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0553</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0494</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9189</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9168</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8578</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7385</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7054</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6746</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6093</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4722</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4511</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4347</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4150</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4002</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3381</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>63.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>107</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
+++ b/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8709,7 +8710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8720,17 +8721,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8740,14 +8761,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>107</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45.43</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -8756,14 +8799,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.27</v>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -8772,14 +8837,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.95</v>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -8788,14 +8875,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.68</v>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2587</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -8804,13 +8913,6851 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8599</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7952</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7751</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7390</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5838</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3844</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3761</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3160</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2733</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>57.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2609</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2462</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1991</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0946</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0525</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0019</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9750</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8384</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011275</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德成长动力一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8333</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8025</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7824</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7664</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6689</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6595</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6205</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6136</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4838</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4792</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4597</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4557</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4105</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3810</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3506</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3334</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3235</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3004</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>68.45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>17.89</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010707</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001635</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>33.06</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001636</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>70.36</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013029</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011276</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>交银施罗德成长动力一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>013030</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010708</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>181</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>107</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
+++ b/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15640,7 +15641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15651,17 +15652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15671,14 +15692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>181</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59.53</v>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -15687,14 +15730,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>107</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.43</v>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -15703,14 +15768,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.27</v>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -15719,14 +15806,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.95</v>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7994</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -15735,14 +15844,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.68</v>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6520</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -15751,13 +15882,5045 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6337</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3364</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2728</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1518</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1171</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9831</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9696</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8882</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8859</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7778</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7434</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6814</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6792</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5994</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>630009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5660</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5586</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5501</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4937</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3716</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3462</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>71.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010222</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫民丰盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>630109</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013950</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>交银先锋混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013600</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001485</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安添颐混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>134</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>181</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>107</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
+++ b/数据整理/stocks/A股/深证主板/001979-招商蛇口.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="D2" t="n">
-        <v>79.48999999999999</v>
+        <v>55.83</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="D3" t="n">
-        <v>41.5</v>
+        <v>79.48999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="D4" t="n">
-        <v>59.53</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="D5" t="n">
-        <v>45.43</v>
+        <v>59.53</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D6" t="n">
-        <v>16.27</v>
+        <v>45.43</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>2.95</v>
+        <v>16.27</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>2.68</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.32</v>
       </c>
     </row>
@@ -616,7 +633,7485 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0441</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>54.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H187"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>205.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0332</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0838</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9341</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7935</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银战略转型股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7813</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5374</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3795</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3684</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2961</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2574</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红沪港深混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2152</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1359</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9876</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9716</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9513</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9362</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8268</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7235</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6984</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6838</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6647</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6559</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013095</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6341</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信内生动力混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5863</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银国家战略股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5785</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5780</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5746</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5195</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4266</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3810</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3759</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3521</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3431</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159707</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝中证800地产ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通领先成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012530</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢惠添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银战略转型股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010219</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富稳健添益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013096</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011376</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华宝安享混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015674</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009689</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>工银产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>工银产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>50.59</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003144</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>016282</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>建信内生动力混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009690</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>003154</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华宝新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>42.64</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>162414</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011548</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>九泰久慧混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>42.64</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>融通领先成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011549</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>九泰久慧混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>013600</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10766,7 +18261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15912,7 +23407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22842,7 +30337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26960,7 +34455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29560,7 +37055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30186,7 +37681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30734,364 +38229,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512200</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0441</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160218</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰国证房地产行业指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5777</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161721</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商沪深300地产等权重指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2864</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160628</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华中证800地产指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2763</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001304</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信鑫安回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>54.48</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0594</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515060</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001264</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华恒利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>48.51</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002327</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华恒利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>48.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>